--- a/Data/collapsed database manual cases/baja_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/baja_collapsed_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7da8e9ec94b4821/Documents/ITAM/RA - Horacio/Monitoring Brokers/Data/States/baja/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5EFA80C-BEEB-8045-B82C-00ADD1E3A9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050409B3-D193-A247-BE58-FFD99E85B71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4480" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="99">
   <si>
     <t>uniqueid</t>
   </si>
@@ -299,6 +299,27 @@
   </si>
   <si>
     <t>PANAL</t>
+  </si>
+  <si>
+    <t>PT_PVEM_MORENA</t>
+  </si>
+  <si>
+    <t>MORENA</t>
+  </si>
+  <si>
+    <t>MONTSERRAT CABALLERO RAMIREZ</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Montserrat_Caballero_Ramírez#Referencias</t>
+  </si>
+  <si>
+    <t>María del Pilar Ávila Olmeda</t>
+  </si>
+  <si>
+    <t>ARMANDO AYALA ROBLES</t>
+  </si>
+  <si>
+    <t>https://es.wikipedia.org/wiki/Armando_Ayala_Robles</t>
   </si>
 </sst>
 </file>
@@ -380,10 +401,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -674,10 +691,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1714,6 +1731,88 @@
         <v>45</v>
       </c>
     </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2001</v>
+      </c>
+      <c r="B22">
+        <v>2024</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" t="s">
+        <v>97</v>
+      </c>
+      <c r="O22">
+        <v>2021</v>
+      </c>
+      <c r="P22" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2004</v>
+      </c>
+      <c r="B23">
+        <v>2024</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" t="s">
+        <v>94</v>
+      </c>
+      <c r="O23">
+        <v>2021</v>
+      </c>
+      <c r="P23" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S21" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
